--- a/medicine/Psychotrope/Association_des_œnophiles_et_dégustateurs_du_Jura/Association_des_œnophiles_et_dégustateurs_du_Jura.xlsx
+++ b/medicine/Psychotrope/Association_des_œnophiles_et_dégustateurs_du_Jura/Association_des_œnophiles_et_dégustateurs_du_Jura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_des_%C5%93nophiles_et_d%C3%A9gustateurs_du_Jura</t>
+          <t>Association_des_œnophiles_et_dégustateurs_du_Jura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’association des œnophiles et dégustateurs du Jura ou AODJ est une association bachique fondée et présidée depuis 2004 par Marie-Thérèse Grappe (restauratrice et professeur restauration et sommelier crus des vins), pour la promotion du vignoble du Jura et de l'œnologie. Elle fonde le concours mondial du savagnin en 2014.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_des_%C5%93nophiles_et_d%C3%A9gustateurs_du_Jura</t>
+          <t>Association_des_œnophiles_et_dégustateurs_du_Jura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association des œnophiles et dégustateurs du Jura (AODJ), régie par la loi 1901 à but non lucratif, a été créée le 1er mars 2004 au 81 route du Revermont à Saint-Lothain dans le vignoble du Jura. 
 			AODJ en 2014
 			Marie-Thérèse Grappe et l'actrice Fanny Cottençon au Féminalise 2013
 			Concours mondial du savagnin en 2014
 			Concours mondial du savagnin
-En 2014 elle créa le concours mondial du savagnin annuel au lycée agricole / viticole de Montmorot / Lons-le-Saunier (capitale du Jura), pour promouvoir le cépage savagnin et sélectionner et récompenser les meilleurs vins du monde à base de ce cépage[1],[2].
+En 2014 elle créa le concours mondial du savagnin annuel au lycée agricole / viticole de Montmorot / Lons-le-Saunier (capitale du Jura), pour promouvoir le cépage savagnin et sélectionner et récompenser les meilleurs vins du monde à base de ce cépage,.
 Cette association bachique a pour but :
 Promotion de l'œnophilie et du vignoble du Jura
 Apprendre à déguster, développer les aptitudes gustatives et sensorielles
